--- a/Wi-Histogram.xlsx
+++ b/Wi-Histogram.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_local\Workspace\WellInsight\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Github\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HistogramTab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Code</t>
   </si>
@@ -113,30 +113,12 @@
     <t>Frequency Info</t>
   </si>
   <si>
-    <t>Z Axes</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>CrossPlotToolbar1</t>
-  </si>
-  <si>
-    <t>CrossPlotToolbar2</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>CrossPlotToolbar3</t>
-  </si>
-  <si>
     <t>PlotTypeDropdown</t>
   </si>
   <si>
@@ -192,17 +174,71 @@
   </si>
   <si>
     <t>height-auto</t>
+  </si>
+  <si>
+    <t>GaussianButton</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>Gausian</t>
+  </si>
+  <si>
+    <t>is-check-type</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>CumulativeButton</t>
+  </si>
+  <si>
+    <t>PlotBarsButton</t>
+  </si>
+  <si>
+    <t>Plot Bars</t>
+  </si>
+  <si>
+    <t>Plot barchart</t>
+  </si>
+  <si>
+    <t>PlotCurvesButton</t>
+  </si>
+  <si>
+    <t>Plot Curves</t>
+  </si>
+  <si>
+    <t>Plot line chart</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>icon-left</t>
+  </si>
+  <si>
+    <t>HistogramToolbar1</t>
+  </si>
+  <si>
+    <t>HistogramToolbar2</t>
+  </si>
+  <si>
+    <t>HistogramToolbar3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -265,12 +301,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFE4A506"/>
@@ -549,27 +617,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,13 +674,19 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -630,7 +704,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -658,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
@@ -686,7 +760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -714,7 +788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
@@ -742,7 +816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -767,12 +841,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -790,79 +864,160 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>2.1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Button</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
       <c r="D10" t="str">
         <f>REPLACE(C10, 1, 2, "")</f>
-        <v/>
+        <v>Button</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
       </c>
       <c r="D11" t="str">
         <f>REPLACE(C11, 1, 2, "")</f>
-        <v/>
+        <v>Button</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
       <c r="D12" t="str">
         <f>REPLACE(C12, 1, 2, "")</f>
-        <v/>
+        <v>Button</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -880,12 +1035,12 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
@@ -899,18 +1054,18 @@
         <v/>
       </c>
       <c r="G14" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -924,21 +1079,30 @@
         <v/>
       </c>
       <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
         <v>49</v>
       </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -952,21 +1116,30 @@
         <v/>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -980,18 +1153,18 @@
         <v/>
       </c>
       <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1005,21 +1178,30 @@
         <v/>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1033,16 +1215,25 @@
         <v/>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1052,7 +1243,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1062,7 +1253,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1072,7 +1263,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1082,7 +1273,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1092,7 +1283,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1102,7 +1293,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1112,7 +1303,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1122,7 +1313,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1132,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>REPLACE(C29, 1, 2, "")</f>
         <v/>
@@ -1142,43 +1333,43 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Wi-Histogram.xlsx
+++ b/Wi-Histogram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Code</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>HistogramToolbar3</t>
+  </si>
+  <si>
+    <t>Save Format</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">

--- a/Wi-Histogram.xlsx
+++ b/Wi-Histogram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>Code</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>Save Format</t>
+  </si>
+  <si>
+    <t>wiHistogram.histogramModel.properties.showGaussian</t>
+  </si>
+  <si>
+    <t>wiHistogram.histogramModel.properties.showCumulative</t>
+  </si>
+  <si>
+    <t>wiHistogram.histogramModel.properties.plot=='Bar'</t>
+  </si>
+  <si>
+    <t>wiHistogram.histogramModel.properties.plot=='Curve'</t>
+  </si>
+  <si>
+    <t>wiHistogram.histogramModel.properties.plotType=='Frequency'</t>
+  </si>
+  <si>
+    <t>wiHistogram.histogramModel.properties.plotType=='Percent'</t>
   </si>
 </sst>
 </file>
@@ -623,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,6 +656,7 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -900,8 +919,8 @@
       <c r="M9" s="9">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>0</v>
+      <c r="N9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -937,8 +956,8 @@
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="N10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -974,8 +993,8 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>1</v>
+      <c r="N11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,8 +1030,8 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="N12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1096,8 +1115,8 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15">
-        <v>1</v>
+      <c r="N15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1133,8 +1152,8 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>0</v>
+      <c r="N16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">

--- a/Wi-Histogram.xlsx
+++ b/Wi-Histogram.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Github\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HistogramTab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Code</t>
   </si>
@@ -246,12 +249,21 @@
   </si>
   <si>
     <t>wiHistogram.histogramModel.properties.plotType=='Percent'</t>
+  </si>
+  <si>
+    <t>ZoneButton</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>wiHistogram.isShowWiZone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -639,24 +651,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -853,7 +865,7 @@
         <v>Button</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F7:F36" si="3">SUBSTITUTE(E7,"_","-")</f>
+        <f t="shared" ref="F7:F37" si="3">SUBSTITUTE(E7,"_","-")</f>
         <v/>
       </c>
       <c r="G7" t="s">
@@ -891,7 +903,7 @@
         <v>2.1</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -905,7 +917,7 @@
         <v/>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
         <v>63</v>
@@ -914,35 +926,35 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="str">
-        <f>REPLACE(C10, 1, 2, "")</f>
+        <f t="shared" ref="D10" si="4">REPLACE(C10, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F10" si="5">SUBSTITUTE(E10,"_","-")</f>
         <v/>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
         <v>63</v>
@@ -951,21 +963,21 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10">
+        <v>52</v>
+      </c>
+      <c r="M10" s="9">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="6">
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -979,7 +991,7 @@
         <v/>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
         <v>63</v>
@@ -988,21 +1000,21 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>2.4</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1016,7 +1028,7 @@
         <v/>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
         <v>63</v>
@@ -1025,120 +1037,120 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="str">
+        <f>REPLACE(C13, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" ref="D13" si="4">REPLACE(C13, 1, 2, "")</f>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ref="D14" si="6">REPLACE(C14, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8" t="str">
-        <f t="shared" ref="D14:D28" si="5">REPLACE(C14, 1, 2, "")</f>
+      <c r="D15" s="8" t="str">
+        <f t="shared" ref="D15:D29" si="7">REPLACE(C15, 1, 2, "")</f>
         <v>Dropdown</v>
       </c>
-      <c r="F14" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="5"/>
-        <v>Button</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>72</v>
+      <c r="J15" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" ref="F16" si="6">SUBSTITUTE(E16,"_","-")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
         <v>63</v>
@@ -1153,91 +1165,91 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17" si="8">SUBSTITUTE(E17,"_","-")</f>
+        <v/>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="str">
-        <f t="shared" si="5"/>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>Dropdown</v>
       </c>
-      <c r="F17" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="5"/>
-        <v>Button</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
+      <c r="J18" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19" si="7">REPLACE(C19, 1, 2, "")</f>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19" si="8">SUBSTITUTE(E19,"_","-")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
         <v>63</v>
@@ -1252,22 +1264,49 @@
         <v>1</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20" si="9">REPLACE(C20, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ref="F20" si="10">SUBSTITUTE(E20,"_","-")</f>
+        <v/>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="N20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F21" t="str">
@@ -1277,7 +1316,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F22" t="str">
@@ -1287,7 +1326,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F23" t="str">
@@ -1297,7 +1336,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F24" t="str">
@@ -1307,7 +1346,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F25" t="str">
@@ -1317,7 +1356,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F26" t="str">
@@ -1327,7 +1366,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F27" t="str">
@@ -1337,7 +1376,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F28" t="str">
@@ -1347,7 +1386,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
-        <f>REPLACE(C29, 1, 2, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F29" t="str">
@@ -1356,6 +1395,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f>REPLACE(C30, 1, 2, "")</f>
+        <v/>
+      </c>
       <c r="F30" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1393,6 +1436,12 @@
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>

--- a/Wi-Histogram.xlsx
+++ b/Wi-Histogram.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Github\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HistogramTab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Code</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Percent</t>
   </si>
   <si>
-    <t>Color by Inpur Curve</t>
-  </si>
-  <si>
     <t>Color by Zone</t>
   </si>
   <si>
@@ -258,12 +255,24 @@
   </si>
   <si>
     <t>wiHistogram.isShowWiZone</t>
+  </si>
+  <si>
+    <t>Color by Input Curve</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>wiHistogram.histogramModel.properties.idZoneSet != null</t>
+  </si>
+  <si>
+    <t>wiHistogram.histogramModel.properties.idZoneSet == null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -651,27 +660,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,18 +718,21 @@
         <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -737,8 +749,11 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -763,10 +778,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
@@ -793,8 +811,11 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -821,8 +842,11 @@
       <c r="K5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
@@ -849,8 +873,11 @@
       <c r="K6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -874,13 +901,16 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -897,13 +927,16 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -917,30 +950,33 @@
         <v/>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -954,30 +990,33 @@
         <v/>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="9">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -991,30 +1030,33 @@
         <v/>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2.4</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1028,30 +1070,33 @@
         <v/>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2.5</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1065,30 +1110,33 @@
         <v/>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1105,8 +1153,11 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1130,8 +1181,11 @@
       <c r="J15" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1153,22 +1207,25 @@
         <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1190,22 +1247,25 @@
         <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -1229,13 +1289,16 @@
       <c r="J18" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1249,30 +1312,33 @@
         <v/>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
       </c>
       <c r="L19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1286,25 +1352,28 @@
         <v/>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1314,7 +1383,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1324,7 +1393,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1334,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1344,7 +1413,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1354,7 +1423,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1364,7 +1433,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1374,7 +1443,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1384,7 +1453,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1394,7 +1463,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f>REPLACE(C30, 1, 2, "")</f>
         <v/>
@@ -1404,13 +1473,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F32" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Wi-Histogram.xlsx
+++ b/Wi-Histogram.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Github\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web-project\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,18 +230,6 @@
     <t>Save Format</t>
   </si>
   <si>
-    <t>wiHistogram.histogramModel.properties.showGaussian</t>
-  </si>
-  <si>
-    <t>wiHistogram.histogramModel.properties.showCumulative</t>
-  </si>
-  <si>
-    <t>wiHistogram.histogramModel.properties.plot=='Bar'</t>
-  </si>
-  <si>
-    <t>wiHistogram.histogramModel.properties.plot=='Curve'</t>
-  </si>
-  <si>
     <t>wiHistogram.histogramModel.properties.plotType=='Frequency'</t>
   </si>
   <si>
@@ -267,6 +255,18 @@
   </si>
   <si>
     <t>wiHistogram.histogramModel.properties.idZoneSet == null</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.plot=='Curve'</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.plot=='Bar'</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.showCumulative</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.showGaussian</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -662,25 +662,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.25" customWidth="1"/>
+    <col min="14" max="14" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,10 +724,10 @@
         <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -931,12 +931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -950,7 +950,7 @@
         <v/>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
@@ -959,19 +959,19 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -1005,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2.2999999999999998</v>
       </c>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>2.4</v>
       </c>
@@ -1085,13 +1085,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2.5</v>
       </c>
@@ -1125,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1219,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1259,13 +1259,13 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1327,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v/>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
         <v>62</v>
@@ -1367,13 +1367,13 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1383,7 +1383,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D22" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1393,7 +1393,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D23" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1403,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D24" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1413,7 +1413,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D25" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1423,7 +1423,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D26" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1433,7 +1433,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D27" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1443,7 +1443,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D28" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1453,7 +1453,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D29" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1463,7 +1463,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D30" t="str">
         <f>REPLACE(C30, 1, 2, "")</f>
         <v/>
@@ -1473,43 +1473,43 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F37" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Wi-Histogram.xlsx
+++ b/Wi-Histogram.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web-project\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\Workspace\Github\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="915" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HistogramTab" sheetId="1" r:id="rId1"/>
@@ -230,12 +230,6 @@
     <t>Save Format</t>
   </si>
   <si>
-    <t>wiHistogram.histogramModel.properties.plotType=='Frequency'</t>
-  </si>
-  <si>
-    <t>wiHistogram.histogramModel.properties.plotType=='Percent'</t>
-  </si>
-  <si>
     <t>ZoneButton</t>
   </si>
   <si>
@@ -251,12 +245,6 @@
     <t>disabled</t>
   </si>
   <si>
-    <t>wiHistogram.histogramModel.properties.idZoneSet != null</t>
-  </si>
-  <si>
-    <t>wiHistogram.histogramModel.properties.idZoneSet == null</t>
-  </si>
-  <si>
     <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.plot=='Curve'</t>
   </si>
   <si>
@@ -267,6 +255,18 @@
   </si>
   <si>
     <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.showGaussian</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.plotType=='Frequency'</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.plotType=='Percent'</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.idZoneSet != null</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.idZoneSet == null</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -662,25 +662,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="13.4375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.21875" customWidth="1"/>
+    <col min="14" max="14" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,10 +724,10 @@
         <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -931,12 +931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -950,7 +950,7 @@
         <v/>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
@@ -959,19 +959,19 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -1005,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="6">
         <v>2.2999999999999998</v>
       </c>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="10">
         <v>2.4</v>
       </c>
@@ -1085,13 +1085,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" s="6">
         <v>2.5</v>
       </c>
@@ -1125,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1219,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1259,13 +1259,13 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1327,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v/>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
         <v>62</v>
@@ -1367,13 +1367,13 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1383,7 +1383,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D22" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1393,7 +1393,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D23" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1403,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D24" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1413,7 +1413,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D25" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1423,7 +1423,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D26" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1433,7 +1433,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D27" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1443,7 +1443,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D28" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1453,7 +1453,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D29" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1463,7 +1463,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="D30" t="str">
         <f>REPLACE(C30, 1, 2, "")</f>
         <v/>
@@ -1473,43 +1473,43 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="F31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="F32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F37" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Wi-Histogram.xlsx
+++ b/Wi-Histogram.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="915" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1815" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HistogramTab" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>Code</t>
   </si>
@@ -263,10 +263,13 @@
     <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.plotType=='Percent'</t>
   </si>
   <si>
-    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.idZoneSet != null</t>
-  </si>
-  <si>
-    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.idZoneSet == null</t>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.colorBy=='zone'</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.colorBy=='curve'</t>
+  </si>
+  <si>
+    <t>wiHistogram.getwiD3Ctrl().histogramModel.properties.idZoneSet==null</t>
   </si>
 </sst>
 </file>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -677,7 +680,8 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="13.4375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.25" customWidth="1"/>
+    <col min="14" max="14" width="68.9375" customWidth="1"/>
+    <col min="15" max="15" width="69.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.5">
@@ -1329,8 +1333,8 @@
       <c r="N19" t="s">
         <v>78</v>
       </c>
-      <c r="O19" t="b">
-        <v>1</v>
+      <c r="O19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
@@ -1369,8 +1373,8 @@
       <c r="N20" t="s">
         <v>79</v>
       </c>
-      <c r="O20" t="b">
-        <v>1</v>
+      <c r="O20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
